--- a/temp_campaign_1_tracking.xlsx
+++ b/temp_campaign_1_tracking.xlsx
@@ -424,7 +424,7 @@
         <v>Sent</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-10-11T07:44:04.171Z</v>
+        <v>2025-10-11T08:26:36.895Z</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/temp_campaign_1_tracking.xlsx
+++ b/temp_campaign_1_tracking.xlsx
@@ -424,7 +424,7 @@
         <v>Sent</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-10-11T08:26:36.895Z</v>
+        <v>2025-10-11T08:47:39.723Z</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/temp_campaign_1_tracking.xlsx
+++ b/temp_campaign_1_tracking.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -424,15 +424,225 @@
         <v>Sent</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-10-11T08:47:39.723Z</v>
+        <v>2025-10-11T12:17:25.122Z</v>
       </c>
       <c r="D2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>919835126411</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D17"/>
   </ignoredErrors>
 </worksheet>
 </file>